--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS001-012 - Kepesertaan - Setup Bidang Usaha Tambah, Ubah, View Detil & Hapus Data.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS001-012 - Kepesertaan - Setup Bidang Usaha Tambah, Ubah, View Detil & Hapus Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A57FAC4-3F99-4E27-9A11-EB4EB581F69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7645B439-6CA8-4967-BF74-1F3FBEE2E926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
   <si>
     <t>SIDEBAR_MENU</t>
   </si>
@@ -49,12 +49,6 @@
     <t>PASSWORD</t>
   </si>
   <si>
-    <t>Putri</t>
-  </si>
-  <si>
-    <t>bni1234/</t>
-  </si>
-  <si>
     <t>MAIN_SIDEBAR</t>
   </si>
   <si>
@@ -97,36 +91,39 @@
     <t>Hapus Setup Bidang Usaha</t>
   </si>
   <si>
-    <t>Username : Putri;
-Password : bni1234/;
+    <t>Setup Bidang Usaha</t>
+  </si>
+  <si>
+    <t>KODE_BIDANG_USAHA</t>
+  </si>
+  <si>
+    <t>NAMA_BIDANG_USAHA</t>
+  </si>
+  <si>
+    <t>Pertambangan</t>
+  </si>
+  <si>
+    <t>Pariwisata</t>
+  </si>
+  <si>
+    <t>bni1234</t>
+  </si>
+  <si>
+    <t>Username : 32382;
+Password : bni1234;
 Kode Bidang Usaha : 9;
 Nama Bidang Usaha : Pertambangan</t>
   </si>
   <si>
-    <t>Username : Putri;
-Password : bni1234/;
+    <t>Username : 32382;
+Password : bni1234;
 Kode Bidang Usaha : 9</t>
   </si>
   <si>
-    <t>Username : Putri;
-Password : bni1234/;
+    <t>Username : 32382;
+Password : bni1234;
 Kode Bidang Usaha : 9;
 Nama Bidang Usaha : Pariwisata</t>
-  </si>
-  <si>
-    <t>Setup Bidang Usaha</t>
-  </si>
-  <si>
-    <t>KODE_BIDANG_USAHA</t>
-  </si>
-  <si>
-    <t>NAMA_BIDANG_USAHA</t>
-  </si>
-  <si>
-    <t>Pertambangan</t>
-  </si>
-  <si>
-    <t>Pariwisata</t>
   </si>
 </sst>
 </file>
@@ -519,7 +516,7 @@
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +561,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
@@ -573,7 +570,7 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>0</v>
@@ -582,10 +579,10 @@
         <v>1</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="75" x14ac:dyDescent="0.25">
@@ -593,40 +590,40 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="4">
+        <v>32382</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="L2" s="4">
         <v>9</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="6"/>
@@ -642,34 +639,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="4">
+        <v>32382</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="L3" s="4">
         <v>9</v>
@@ -686,40 +683,40 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="4">
+        <v>32382</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="K4" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="L4" s="4">
         <v>9</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="6"/>
@@ -733,34 +730,34 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="4">
+        <v>32382</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="K5" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="L5" s="4">
         <v>9</v>
